--- a/files/results.xlsx
+++ b/files/results.xlsx
@@ -435,7 +435,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -451,7 +451,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -515,7 +515,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -531,7 +531,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -539,7 +539,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -595,7 +595,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -603,7 +603,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -611,7 +611,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -699,7 +699,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -731,7 +731,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -739,7 +739,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -763,7 +763,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -851,7 +851,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -983,13 +983,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -998,22 +998,22 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>1</v>
@@ -1022,25 +1022,25 @@
         <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>1</v>
@@ -1055,10 +1055,10 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC2" t="n">
         <v>1</v>
@@ -1069,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1081,10 +1081,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
         <v>1</v>
@@ -1114,16 +1114,16 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
@@ -1167,19 +1167,19 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>1</v>
@@ -1188,16 +1188,16 @@
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
@@ -1206,7 +1206,7 @@
         <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>1</v>
@@ -1218,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
@@ -1253,22 +1253,22 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -1295,13 +1295,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1319,10 +1319,10 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5" t="n">
         <v>1</v>
@@ -1345,13 +1345,13 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -1360,28 +1360,28 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
         <v>1</v>
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>1</v>
@@ -1402,10 +1402,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6" t="n">
         <v>1</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
         <v>1</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -1455,13 +1455,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>1</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>1</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
@@ -1514,22 +1514,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1565,10 +1565,10 @@
         <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1580,22 +1580,22 @@
         <v>1</v>
       </c>
       <c r="X8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
         <v>1</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1606,7 +1606,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -1627,28 +1627,28 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1657,28 +1657,28 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
         <v>1</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1707,10 +1707,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1725,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1746,13 +1746,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>1</v>
       </c>
       <c r="AA10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
         <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1784,13 +1784,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -1808,10 +1808,10 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1826,16 +1826,16 @@
         <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1847,19 +1847,19 @@
         <v>1</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11" t="n">
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
         <v>1</v>
@@ -1873,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1882,7 +1882,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1891,13 +1891,13 @@
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
@@ -1906,46 +1906,46 @@
         <v>1</v>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12" t="n">
         <v>1</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12" t="n">
         <v>1</v>
@@ -1959,70 +1959,70 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" t="n">
         <v>1</v>
@@ -2034,13 +2034,13 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
         <v>1</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -2048,13 +2048,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -2066,7 +2066,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>1</v>
@@ -2105,16 +2105,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -2137,7 +2137,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2155,22 +2155,22 @@
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>1</v>
@@ -2185,10 +2185,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
         <v>1</v>
@@ -2197,13 +2197,13 @@
         <v>1</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -2212,10 +2212,10 @@
         <v>1</v>
       </c>
       <c r="AA15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -2229,7 +2229,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -2238,55 +2238,55 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
         <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" t="n">
         <v>1</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>1</v>
@@ -2295,10 +2295,10 @@
         <v>1</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16" t="n">
         <v>1</v>
@@ -2307,7 +2307,7 @@
         <v>1</v>
       </c>
       <c r="AC16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2333,16 +2333,16 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>1</v>
@@ -2375,28 +2375,28 @@
         <v>1</v>
       </c>
       <c r="V17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" t="n">
         <v>1</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA17" t="n">
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -2416,10 +2416,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2428,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>1</v>
@@ -2440,7 +2440,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -2449,22 +2449,22 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" t="n">
         <v>1</v>
       </c>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" t="n">
         <v>1</v>
@@ -2473,16 +2473,16 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18" t="n">
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC18" t="n">
         <v>1</v>
@@ -2493,25 +2493,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -2520,16 +2520,16 @@
         <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2544,19 +2544,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
         <v>1</v>
       </c>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" t="n">
         <v>1</v>
@@ -2571,10 +2571,10 @@
         <v>1</v>
       </c>
       <c r="AB19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2582,22 +2582,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2606,40 +2606,40 @@
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2651,10 +2651,10 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA20" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2677,13 +2677,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2704,10 +2704,10 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>1</v>
@@ -2719,40 +2719,40 @@
         <v>1</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
         <v>1</v>
       </c>
       <c r="AC21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
@@ -2778,28 +2778,28 @@
         <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -2811,25 +2811,25 @@
         <v>1</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>1</v>
       </c>
       <c r="Y22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22" t="n">
         <v>1</v>
@@ -2838,10 +2838,10 @@
         <v>1</v>
       </c>
       <c r="AB22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2849,7 +2849,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -2864,13 +2864,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>1</v>
@@ -2879,28 +2879,28 @@
         <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>1</v>
@@ -2909,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2918,19 +2918,19 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23" t="n">
         <v>1</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -2938,37 +2938,37 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -2980,28 +2980,28 @@
         <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -3030,52 +3030,52 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
         <v>1</v>
       </c>
       <c r="R25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>1</v>
@@ -3093,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -3102,10 +3102,10 @@
         <v>0</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -3116,43 +3116,43 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -3164,22 +3164,22 @@
         <v>1</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S26" t="n">
         <v>1</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>1</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26" t="n">
         <v>1</v>
@@ -3188,10 +3188,10 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" t="n">
         <v>0</v>
@@ -3211,25 +3211,25 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -3241,10 +3241,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
@@ -3253,10 +3253,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" t="n">
         <v>1</v>
@@ -3274,19 +3274,19 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27" t="n">
         <v>1</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -3300,10 +3300,10 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>1</v>
@@ -3312,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -3321,10 +3321,10 @@
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -3333,16 +3333,16 @@
         <v>1</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -3351,13 +3351,13 @@
         <v>1</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -3369,13 +3369,13 @@
         <v>0</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28" t="n">
         <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -3383,16 +3383,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -3404,13 +3404,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -3434,10 +3434,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U29" t="n">
         <v>1</v>
@@ -3458,13 +3458,13 @@
         <v>0</v>
       </c>
       <c r="AA29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
